--- a/DataDrivenExecelBaseClass/ExcelFolder/Book1.xlsx
+++ b/DataDrivenExecelBaseClass/ExcelFolder/Book1.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\DataDrivenExecelBaseClass\ExcelFolder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\automation_testing\DataDrivenExecelBaseClass\ExcelFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB2051F7-5146-4E52-A1F1-F0526EE8D8A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03C9F42-1603-4AF6-931E-57D366C05466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{302D7D0D-462D-41AC-B45D-C2872394157D}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="17">
   <si>
     <t>SNO</t>
   </si>
@@ -60,9 +60,6 @@
   </si>
   <si>
     <t>Facebook</t>
-  </si>
-  <si>
-    <t>kumar.jan9@gmail.com</t>
   </si>
   <si>
     <t>Anbu</t>
@@ -96,8 +93,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -446,15 +442,15 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection sqref="A1:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="26.44140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="32.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="20.21875" collapsed="true"/>
+    <col min="2" max="2" width="26.44140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="32.44140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="21" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="20.21875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -499,10 +495,10 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" s="1">
         <v>36445</v>
@@ -513,10 +509,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
         <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
       </c>
       <c r="D4">
         <v>78272929</v>
@@ -530,10 +526,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
         <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
       </c>
       <c r="D5">
         <v>7616181872</v>
@@ -547,10 +543,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
         <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
       </c>
       <c r="D6">
         <v>78282828</v>
@@ -564,10 +560,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
         <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
       </c>
       <c r="D7">
         <v>787845454</v>
@@ -583,12 +579,134 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8F9C747-C45C-4AE4-BED8-13B525839E93}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>8787878799</v>
+      </c>
+      <c r="E2" s="1">
+        <v>44479</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="1">
+        <v>36445</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>78272929</v>
+      </c>
+      <c r="E4">
+        <v>787878</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>7616181872</v>
+      </c>
+      <c r="E5" s="1">
+        <v>34979</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6">
+        <v>78282828</v>
+      </c>
+      <c r="E6" s="1">
+        <v>33900</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7">
+        <v>787845454</v>
+      </c>
+      <c r="E7" s="1">
+        <v>36109</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>